--- a/problem B/Appendix 1/1.xlsx
+++ b/problem B/Appendix 1/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\美赛校内赛题目\附件1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三上\数学建模\11-28-美赛模拟\Problem B\Appendix 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E450A4-4BA2-409B-8840-C4B3164AD14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A6F5C-9D1C-430A-892C-F825CDC32D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
     <t>Var2</t>
   </si>
   <si>
-    <t>Var3(x)</t>
+    <t>Var3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Var4(y)</t>
+    <t>Var4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Var5(z)</t>
+    <t>Var5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +55,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,16 +382,16 @@
   <dimension ref="A1:E4311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
